--- a/219-sfe-corriger-la-description-des-actions-341/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/219-sfe-corriger-la-description-des-actions-341/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T11:44:33+00:00</t>
+    <t>2024-10-07T11:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/219-sfe-corriger-la-description-des-actions-341/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/219-sfe-corriger-la-description-des-actions-341/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T11:47:05+00:00</t>
+    <t>2024-10-07T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
